--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200609.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200609.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840780DF-DF85-4179-996F-1D073E64185D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D68481E-C6DC-4B10-8A1F-E37B3717CD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AJ21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -774,10 +774,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D2" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -839,10 +839,10 @@
         <v>46</v>
       </c>
       <c r="C3" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D3" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
@@ -904,10 +904,10 @@
         <v>46</v>
       </c>
       <c r="C4" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D4" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -969,10 +969,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D5" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -1034,10 +1034,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D6" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1099,10 +1099,10 @@
         <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D7" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1164,10 +1164,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D8" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
@@ -1229,10 +1229,10 @@
         <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D9" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1294,10 +1294,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D10" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E10" t="s">
         <v>47</v>
@@ -1359,10 +1359,10 @@
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D11" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
@@ -1427,10 +1427,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D12" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1492,10 +1492,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D13" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1557,10 +1557,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D14" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E14" t="s">
         <v>47</v>
@@ -1622,10 +1622,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D15" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E15" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D16" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E16" t="s">
         <v>47</v>
@@ -1752,10 +1752,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D17" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
@@ -1817,10 +1817,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D18" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -1879,10 +1879,10 @@
         <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D19" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -1935,10 +1935,10 @@
         <v>46</v>
       </c>
       <c r="C20" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D20" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -1950,10 +1950,10 @@
         <v>72</v>
       </c>
       <c r="N20">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="T20">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="Y20" t="s">
         <v>50</v>
@@ -1997,10 +1997,10 @@
         <v>73</v>
       </c>
       <c r="C21" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="D21" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P21">
         <v>68135</v>
@@ -2030,7 +2030,7 @@
         <v>4512</v>
       </c>
       <c r="T21">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="X21">
         <v>-1132</v>
